--- a/DM_air_matrix_mirror.xlsx
+++ b/DM_air_matrix_mirror.xlsx
@@ -711,28 +711,28 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1005012</v>
+        <v>177.5342465753425</v>
       </c>
       <c r="I7" t="n">
-        <v>1046554.5</v>
+        <v>142.027397260274</v>
       </c>
       <c r="J7" t="n">
-        <v>1224299.5</v>
+        <v>165.6986301369863</v>
       </c>
       <c r="K7" t="n">
-        <v>1443332.5</v>
+        <v>153.8630136986301</v>
       </c>
       <c r="L7" t="n">
-        <v>1303958.5</v>
+        <v>165.6986301369863</v>
       </c>
       <c r="M7" t="n">
-        <v>1063849</v>
+        <v>201.2054794520548</v>
       </c>
       <c r="N7" t="n">
-        <v>1004897</v>
+        <v>71.01369863013699</v>
       </c>
       <c r="O7" t="n">
-        <v>977961</v>
+        <v>319.5616438356165</v>
       </c>
     </row>
     <row r="8">
@@ -761,33 +761,39 @@
         <v>37.90629959</v>
       </c>
       <c r="G8" t="n">
-        <v>1005012</v>
+        <v>177.5342465753425</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>204691</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>233287.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="K8" t="n">
-        <v>189372</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="L8" t="n">
-        <v>307652.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1325.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1506</v>
+        <v>35.50684931506849</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>67177.5</v>
+        <v>82.84931506849315</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +822,12 @@
         <v>104.3889999</v>
       </c>
       <c r="G9" t="n">
-        <v>1046554.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>204691</v>
+        <v>142.027397260274</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -827,22 +835,24 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>81281.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="K9" t="n">
-        <v>158267.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100232.5</v>
+        <v>23.67123287671233</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="M9" t="n">
-        <v>92720.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="N9" t="n">
-        <v>204634.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="O9" t="n">
-        <v>204727</v>
+        <v>23.67123287671233</v>
       </c>
     </row>
     <row r="10">
@@ -871,13 +881,13 @@
         <v>49.27870178</v>
       </c>
       <c r="G10" t="n">
-        <v>1224299.5</v>
+        <v>165.6986301369863</v>
       </c>
       <c r="H10" t="n">
-        <v>233287.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="I10" t="n">
-        <v>81281.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -885,19 +895,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>215454</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="L10" t="n">
-        <v>84673.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="M10" t="n">
-        <v>294325.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="N10" t="n">
-        <v>233306.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="O10" t="n">
-        <v>81971</v>
+        <v>35.50684931506849</v>
       </c>
     </row>
     <row r="11">
@@ -926,16 +936,16 @@
         <v>30.26250076</v>
       </c>
       <c r="G11" t="n">
-        <v>1443332.5</v>
+        <v>153.8630136986301</v>
       </c>
       <c r="H11" t="n">
-        <v>189372</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="I11" t="n">
-        <v>158267.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="J11" t="n">
-        <v>215454</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -943,16 +953,16 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>221558.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="M11" t="n">
-        <v>264250</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="N11" t="n">
-        <v>189260.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="O11" t="n">
-        <v>205170</v>
+        <v>35.50684931506849</v>
       </c>
     </row>
     <row r="12">
@@ -981,19 +991,21 @@
         <v>82.65070342999999</v>
       </c>
       <c r="G12" t="n">
-        <v>1303958.5</v>
+        <v>165.6986301369863</v>
       </c>
       <c r="H12" t="n">
-        <v>307652.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100232.5</v>
+        <v>35.50684931506849</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="J12" t="n">
-        <v>84673.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="K12" t="n">
-        <v>221558.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1001,13 +1013,13 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>170178</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="N12" t="n">
-        <v>307646</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="O12" t="n">
-        <v>112017.5</v>
+        <v>47.34246575342465</v>
       </c>
     </row>
     <row r="13">
@@ -1036,33 +1048,37 @@
         <v>37.4146</v>
       </c>
       <c r="G13" t="n">
-        <v>1063849</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1325.5</v>
+        <v>201.2054794520548</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>92720.5</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="J13" t="n">
-        <v>294325.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="K13" t="n">
-        <v>264250</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="L13" t="n">
-        <v>170178</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>1347.5</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="O13" t="n">
-        <v>239702</v>
+        <v>82.84931506849315</v>
       </c>
     </row>
     <row r="14">
@@ -1091,25 +1107,29 @@
         <v>37.26150131</v>
       </c>
       <c r="G14" t="n">
-        <v>1004897</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1506</v>
+        <v>71.01369863013699</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>204634.5</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="J14" t="n">
-        <v>233306.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="K14" t="n">
-        <v>189260.5</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="L14" t="n">
-        <v>307646</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1347.5</v>
+        <v>11.83561643835616</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1117,7 +1137,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>67196</v>
+        <v>11.83561643835616</v>
       </c>
     </row>
     <row r="15">
@@ -1146,28 +1166,28 @@
         <v>132.147995</v>
       </c>
       <c r="G15" t="n">
-        <v>977961</v>
+        <v>319.5616438356165</v>
       </c>
       <c r="H15" t="n">
-        <v>67177.5</v>
+        <v>82.84931506849315</v>
       </c>
       <c r="I15" t="n">
-        <v>204727</v>
+        <v>23.67123287671233</v>
       </c>
       <c r="J15" t="n">
-        <v>81971</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="K15" t="n">
-        <v>205170</v>
+        <v>35.50684931506849</v>
       </c>
       <c r="L15" t="n">
-        <v>112017.5</v>
+        <v>47.34246575342465</v>
       </c>
       <c r="M15" t="n">
-        <v>239702</v>
+        <v>82.84931506849315</v>
       </c>
       <c r="N15" t="n">
-        <v>67196</v>
+        <v>11.83561643835616</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
